--- a/data/wn18/inverse_stats_train.xlsx
+++ b/data/wn18/inverse_stats_train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayansh/Documents/Workspace/Python/KGE_Pattern/data/wn18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF03BC34-56C6-6D49-8BF8-57F2F86D6672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B769959B-9996-094A-8D20-4FA246376FFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>_hypernym</t>
   </si>
@@ -73,7 +73,10 @@
     <t>_verb_group</t>
   </si>
   <si>
-    <t>Number of occurances per inverse relation in the train set</t>
+    <t>relattion</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
 </sst>
 </file>
@@ -478,15 +481,20 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
